--- a/Budget/Template_Budget.xlsx
+++ b/Budget/Template_Budget.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mac\Home\Documents\FGV Prodata\T1C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Muhammad Hazim Bin Shahimi (FPSSB)\OneDrive - FGV Holdings Bhd\Project\T1C\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{067E4CEA-A896-4AF1-B873-4D09D89284F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="27196" windowHeight="16366" xr2:uid="{5CA175CF-44BD-414B-A9DA-29C431395D02}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="27195" windowHeight="16365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NO</t>
   </si>
@@ -61,12 +60,18 @@
   </si>
   <si>
     <t>JENIS</t>
+  </si>
+  <si>
+    <t>PUSAT KOS</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,20 +441,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209093DE-7C94-4641-8B60-58B1F4EE9A92}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.86328125" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,13 +468,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -485,6 +490,12 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Budget/Template_Budget.xlsx
+++ b/Budget/Template_Budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Muhammad Hazim Bin Shahimi (FPSSB)\OneDrive - FGV Holdings Bhd\Project\T1C\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - FGV Holdings Bhd\Work\Code\MyCode\CCMS\Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>NO</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>TAHUN</t>
-  </si>
-  <si>
-    <t>JENIS</t>
   </si>
   <si>
     <t>PUSAT KOS</t>
@@ -442,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +451,7 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -492,9 +489,6 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
